--- a/data/trans_orig/P79A6_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P79A6_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>100164</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>87080</v>
+        <v>88285</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>109412</v>
+        <v>109703</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7561801238541094</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.657402099186338</v>
+        <v>0.6664955212030007</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8259938639543308</v>
+        <v>0.8281931666579186</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>162</v>
@@ -762,19 +762,19 @@
         <v>122778</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>109070</v>
+        <v>109314</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>134667</v>
+        <v>133345</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7229868385065921</v>
+        <v>0.7229868385065922</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6422680850737662</v>
+        <v>0.6437051982042015</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7929963258425405</v>
+        <v>0.7852122879106381</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>255</v>
@@ -783,19 +783,19 @@
         <v>222942</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>203975</v>
+        <v>206549</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>236536</v>
+        <v>237935</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.737532294485572</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6747863134445263</v>
+        <v>0.6833012443672484</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7825024263674077</v>
+        <v>0.7871326835376662</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>32297</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23049</v>
+        <v>22758</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45381</v>
+        <v>44176</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2438198761458906</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1740061360456691</v>
+        <v>0.1718068333420812</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.342597900813662</v>
+        <v>0.3335044787969993</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -833,19 +833,19 @@
         <v>47042</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35153</v>
+        <v>36475</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60750</v>
+        <v>60506</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2770131614934078</v>
+        <v>0.2770131614934079</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2070036741574615</v>
+        <v>0.2147877120893618</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3577319149262339</v>
+        <v>0.3562948017957985</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>81</v>
@@ -854,19 +854,19 @@
         <v>79339</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>65745</v>
+        <v>64346</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98306</v>
+        <v>95732</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.262467705514428</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2174975736325924</v>
+        <v>0.2128673164623338</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3252136865554739</v>
+        <v>0.3166987556327517</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>127491</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>121674</v>
+        <v>121802</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>129795</v>
+        <v>129791</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9745689929794226</v>
+        <v>0.9745689929794228</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9301018531089219</v>
+        <v>0.9310765934855311</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9921784655841502</v>
+        <v>0.9921492677221737</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>198</v>
@@ -979,19 +979,19 @@
         <v>147402</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>140911</v>
+        <v>140882</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>150295</v>
+        <v>150236</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9682815391090414</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9256381217079725</v>
+        <v>0.9254512457423986</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9872820840505812</v>
+        <v>0.9868935275528454</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>327</v>
@@ -1000,19 +1000,19 @@
         <v>274893</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>268200</v>
+        <v>268157</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>279151</v>
+        <v>279456</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.971187438083317</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9475436778409205</v>
+        <v>0.9473910965272841</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9862335417415034</v>
+        <v>0.9873087322621146</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>3327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9144</v>
+        <v>9016</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02543100702057729</v>
+        <v>0.0254310070205773</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007821534415849868</v>
+        <v>0.007850732277826195</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0698981468910778</v>
+        <v>0.06892340651446879</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1050,19 +1050,19 @@
         <v>4829</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1936</v>
+        <v>1995</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11320</v>
+        <v>11349</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03171846089095871</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01271791594941875</v>
+        <v>0.01310647244715462</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07436187829202712</v>
+        <v>0.07454875425760134</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -1071,19 +1071,19 @@
         <v>8155</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3897</v>
+        <v>3592</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14848</v>
+        <v>14891</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0288125619166831</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01376645825849661</v>
+        <v>0.01269126773788532</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05245632215907935</v>
+        <v>0.05260890347271588</v>
       </c>
     </row>
     <row r="9">
@@ -1175,7 +1175,7 @@
         <v>24157</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21069</v>
+        <v>19948</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>25026</v>
@@ -1184,7 +1184,7 @@
         <v>0.9652603121700258</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.84188202861293</v>
+        <v>0.7970776542626715</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1196,19 +1196,19 @@
         <v>23372</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16600</v>
+        <v>15763</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26859</v>
+        <v>26611</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8249846278255403</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5859616917750353</v>
+        <v>0.5564024979990122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9480621847247378</v>
+        <v>0.9393231474290969</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -1217,19 +1217,19 @@
         <v>47528</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39596</v>
+        <v>40467</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51181</v>
+        <v>51369</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8907796756364905</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7421203834926862</v>
+        <v>0.758453961197735</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9592537103622524</v>
+        <v>0.9627869697485825</v>
       </c>
     </row>
     <row r="11">
@@ -1249,16 +1249,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3957</v>
+        <v>5078</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03473968782997423</v>
+        <v>0.03473968782997422</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1581179713870697</v>
+        <v>0.2029223457373279</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1267,19 +1267,19 @@
         <v>4958</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1471</v>
+        <v>1719</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11730</v>
+        <v>12567</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1750153721744598</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05193781527526199</v>
+        <v>0.06067685257090315</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.414038308224965</v>
+        <v>0.4435975020009879</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -1288,19 +1288,19 @@
         <v>5827</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2174</v>
+        <v>1986</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13759</v>
+        <v>12888</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1092203243635095</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04074628963774772</v>
+        <v>0.0372130302514177</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2578796165073151</v>
+        <v>0.2415460388022654</v>
       </c>
     </row>
     <row r="12">
@@ -1426,7 +1426,7 @@
         <v>6384</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2869</v>
+        <v>2632</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>7543</v>
@@ -1435,7 +1435,7 @@
         <v>0.8463058859137023</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3803934722404951</v>
+        <v>0.3489263156556415</v>
       </c>
       <c r="W13" s="6" t="n">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4669</v>
+        <v>4924</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1536941140862977</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6190365675565038</v>
+        <v>0.6527674732715276</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>254822</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>241862</v>
+        <v>241812</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>265910</v>
+        <v>265179</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.871263616610363</v>
+        <v>0.8712636166103631</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8269521955426649</v>
+        <v>0.8267801291364409</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9091738197736889</v>
+        <v>0.9066746795243125</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>393</v>
@@ -1614,19 +1614,19 @@
         <v>296924</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>279275</v>
+        <v>279391</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>308944</v>
+        <v>310457</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8393540425330274</v>
+        <v>0.8393540425330273</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7894626004053595</v>
+        <v>0.7897923594971228</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8733317902460598</v>
+        <v>0.8776092401261155</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>642</v>
@@ -1635,19 +1635,19 @@
         <v>551746</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>531483</v>
+        <v>529121</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>570771</v>
+        <v>569986</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8537959207404378</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.822440531156955</v>
+        <v>0.8187851102376998</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8832356413999926</v>
+        <v>0.882020919800263</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>37652</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26564</v>
+        <v>27295</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50612</v>
+        <v>50662</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1287363833896369</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09082618022631124</v>
+        <v>0.09332532047568774</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1730478044573351</v>
+        <v>0.1732198708635591</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -1685,19 +1685,19 @@
         <v>56829</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44809</v>
+        <v>43296</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74478</v>
+        <v>74362</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1606459574669726</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1266682097539403</v>
+        <v>0.1223907598738845</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2105373995946406</v>
+        <v>0.210207640502877</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>97</v>
@@ -1706,19 +1706,19 @@
         <v>94481</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>75456</v>
+        <v>76241</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>114744</v>
+        <v>117106</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1462040792595622</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1167643586000076</v>
+        <v>0.117979080199737</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1775594688430449</v>
+        <v>0.1812148897623001</v>
       </c>
     </row>
     <row r="18">
